--- a/resources/wheels/174 - Шейна.xlsx
+++ b/resources/wheels/174 - Шейна.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Колесо 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Колесо 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Колесо 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Колесо 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Колесо 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Колесо 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Колесо 7" sheetId="7" r:id="rId7"/>
+    <sheet name="1" sheetId="3" r:id="rId1"/>
+    <sheet name="2" sheetId="4" r:id="rId2"/>
+    <sheet name="3" sheetId="1" r:id="rId3"/>
+    <sheet name="4" sheetId="2" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="46">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>до 01.12.2019</t>
+  </si>
+  <si>
+    <t>235х75 R17,5</t>
+  </si>
+  <si>
+    <t>Бел-159</t>
+  </si>
+  <si>
+    <t>059053</t>
+  </si>
+  <si>
+    <t>044607</t>
   </si>
 </sst>
 </file>
@@ -301,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -378,6 +390,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -389,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,34 +690,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -710,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -724,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -737,9 +755,7 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>5513</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -751,8 +767,8 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>150187</v>
+      <c r="B6" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -765,9 +781,7 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>18</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -805,9 +819,7 @@
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>242</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -854,37 +866,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,20 +907,20 @@
         <v>34</v>
       </c>
       <c r="C16" s="21">
-        <v>43620</v>
+        <v>44068</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="23">
-        <v>23.7</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="E16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.7</v>
+        <v>5.056</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -918,10 +930,10 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="23">
-        <v>2.9</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>3.871</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="5"/>
@@ -932,11 +944,9 @@
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="23">
-        <v>2.9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="5"/>
     </row>
@@ -946,11 +956,9 @@
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="23">
-        <v>3.5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="5"/>
     </row>
@@ -960,11 +968,9 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="23">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
     </row>
@@ -973,12 +979,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="23">
-        <v>2.6</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -987,12 +988,8 @@
       <c r="B22" s="5"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="23">
-        <v>4</v>
-      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -1001,12 +998,8 @@
       <c r="B23" s="5"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="23">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -1015,9 +1008,6 @@
       <c r="B24" s="5"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -1027,9 +1017,6 @@
       <c r="B25" s="5"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -1039,9 +1026,6 @@
       <c r="B26" s="5"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1051,9 +1035,6 @@
       <c r="B27" s="5"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
@@ -1063,9 +1044,6 @@
       <c r="B28" s="5"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
@@ -1075,9 +1053,6 @@
       <c r="B29" s="5"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
@@ -1576,37 +1551,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1614,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1628,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1641,9 +1616,7 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>5513</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1655,8 +1628,8 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>150154</v>
+      <c r="B6" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1669,9 +1642,7 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>18</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1709,9 +1680,7 @@
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>242</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1758,37 +1727,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1799,20 +1768,20 @@
         <v>34</v>
       </c>
       <c r="C16" s="21">
-        <v>43620</v>
+        <v>44068</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="23">
-        <v>23.7</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="E16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.7</v>
+        <v>5.056</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1822,10 +1791,10 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="23">
-        <v>2.9</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>3.871</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="5"/>
@@ -1836,11 +1805,9 @@
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="23">
-        <v>2.9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="5"/>
     </row>
@@ -1850,11 +1817,9 @@
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="23">
-        <v>3.5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="5"/>
     </row>
@@ -1864,11 +1829,9 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="23">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
     </row>
@@ -1877,12 +1840,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="23">
-        <v>2.6</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -1891,12 +1849,8 @@
       <c r="B22" s="5"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="23">
-        <v>4</v>
-      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -1905,12 +1859,8 @@
       <c r="B23" s="5"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="23">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -1919,9 +1869,6 @@
       <c r="B24" s="5"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -1931,9 +1878,6 @@
       <c r="B25" s="5"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -1943,9 +1887,6 @@
       <c r="B26" s="5"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1955,9 +1896,6 @@
       <c r="B27" s="5"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
@@ -1967,9 +1905,6 @@
       <c r="B28" s="5"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
@@ -1979,9 +1914,6 @@
       <c r="B29" s="5"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
@@ -2478,39 +2410,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2521,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2535,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2548,7 +2477,9 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <v>5513</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2560,7 +2491,9 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>150187</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2572,7 +2505,9 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>18</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2610,7 +2545,9 @@
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>242</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2657,37 +2594,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,7 +2635,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="21">
-        <v>41885</v>
+        <v>43620</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>18</v>
@@ -2707,11 +2644,11 @@
         <v>41</v>
       </c>
       <c r="F16" s="23">
-        <v>125.8</v>
-      </c>
-      <c r="G16" s="23">
+        <v>23.7</v>
+      </c>
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>147.79999999999998</v>
+        <v>54.266000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2821,7 +2758,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.51</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2833,7 +2772,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>1.185</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2845,7 +2786,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>3.871</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3377,39 +3320,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -3420,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3434,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3447,7 +3387,9 @@
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <v>5513</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3459,7 +3401,9 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>150154</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3471,7 +3415,9 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>18</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3509,7 +3455,9 @@
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>242</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3556,37 +3504,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3597,7 +3545,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="21">
-        <v>41885</v>
+        <v>43620</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>18</v>
@@ -3606,11 +3554,11 @@
         <v>41</v>
       </c>
       <c r="F16" s="23">
-        <v>125.8</v>
-      </c>
-      <c r="G16" s="23">
+        <v>23.7</v>
+      </c>
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>147.79999999999998</v>
+        <v>54.266000000000005</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3720,7 +3668,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.51</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3732,7 +3682,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>1.185</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3744,7 +3696,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>3.871</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4281,34 +4235,34 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -4455,37 +4409,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4507,9 +4461,9 @@
       <c r="F16" s="23">
         <v>125.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>147.79999999999998</v>
+        <v>156.36599999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4619,7 +4573,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.51</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4631,7 +4587,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>1.185</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4643,7 +4601,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>3.871</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5180,34 +5140,34 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5354,37 +5314,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5406,9 +5366,9 @@
       <c r="F16" s="23">
         <v>125.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>147.79999999999998</v>
+        <v>156.36599999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5518,7 +5478,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.51</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5530,7 +5492,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>1.185</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5542,7 +5506,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>3.871</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6085,28 +6051,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -6253,37 +6219,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6305,9 +6271,9 @@
       <c r="F16" s="23">
         <v>125.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>147.79999999999998</v>
+        <v>156.36599999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6417,7 +6383,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>3.51</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6429,7 +6397,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>1.185</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6441,7 +6411,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>3.871</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/174 - Шейна.xlsx
+++ b/resources/wheels/174 - Шейна.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -163,6 +163,42 @@
   </si>
   <si>
     <t>044607</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -390,6 +426,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -404,9 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,15 +745,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -767,7 +803,7 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="5"/>
@@ -866,37 +902,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -915,12 +951,12 @@
       <c r="E16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="23" t="n">
-        <v>1.185</v>
+      <c r="F16" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>5.056</v>
+        <v>13.074</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -932,7 +968,7 @@
       <c r="E17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="23">
         <v>3.871</v>
       </c>
       <c r="G17" s="23"/>
@@ -946,7 +982,9 @@
       <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="5"/>
     </row>
@@ -958,7 +996,9 @@
       <c r="E19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="5"/>
     </row>
@@ -970,7 +1010,9 @@
       <c r="E20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
     </row>
@@ -1570,15 +1612,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
@@ -1628,7 +1670,7 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="5"/>
@@ -1727,37 +1769,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,12 +1818,12 @@
       <c r="E16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="23" t="n">
-        <v>1.185</v>
+      <c r="F16" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>5.056</v>
+        <v>13.074</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1793,7 +1835,7 @@
       <c r="E17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="23">
         <v>3.871</v>
       </c>
       <c r="G17" s="23"/>
@@ -1807,7 +1849,9 @@
       <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="5"/>
     </row>
@@ -1819,7 +1863,9 @@
       <c r="E19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="5"/>
     </row>
@@ -1831,7 +1877,9 @@
       <c r="E20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
     </row>
@@ -2431,15 +2479,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2594,37 +2642,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2648,7 +2696,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.266000000000005</v>
+        <v>62.284000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2772,8 +2820,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>1.185</v>
+      <c r="F25" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -2786,7 +2834,7 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="23">
         <v>3.871</v>
       </c>
       <c r="G26" s="23"/>
@@ -2800,7 +2848,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2812,7 +2862,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2824,7 +2876,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -3341,15 +3395,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -3504,37 +3558,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3558,7 +3612,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.266000000000005</v>
+        <v>62.284000000000006</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3682,8 +3736,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>1.185</v>
+      <c r="F25" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -3696,7 +3750,7 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="23">
         <v>3.871</v>
       </c>
       <c r="G26" s="23"/>
@@ -3710,7 +3764,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3722,7 +3778,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3734,7 +3792,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -4254,15 +4314,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -4409,37 +4469,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4463,7 +4523,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>156.36599999999999</v>
+        <v>164.38399999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4587,8 +4647,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>1.185</v>
+      <c r="F25" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -4601,7 +4661,7 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="23">
         <v>3.871</v>
       </c>
       <c r="G26" s="23"/>
@@ -4615,7 +4675,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4627,7 +4689,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4639,7 +4703,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -5159,15 +5225,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5314,37 +5380,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5368,7 +5434,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>156.36599999999999</v>
+        <v>164.38399999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5492,8 +5558,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>1.185</v>
+      <c r="F25" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -5506,7 +5572,7 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="23">
         <v>3.871</v>
       </c>
       <c r="G26" s="23"/>
@@ -5520,7 +5586,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5532,7 +5600,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5544,7 +5614,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -6045,8 +6117,8 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6064,15 +6136,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -6219,37 +6291,37 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6273,7 +6345,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>156.36599999999999</v>
+        <v>167.41799999999995</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6397,8 +6469,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>1.185</v>
+      <c r="F25" s="23">
+        <v>1.1850000000000001</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -6411,7 +6483,7 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="23">
         <v>3.871</v>
       </c>
       <c r="G26" s="23"/>
@@ -6425,7 +6497,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>2.992</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6437,7 +6511,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>1.9390000000000001</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6449,7 +6525,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.087</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -6458,8 +6536,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>3.034</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -6468,7 +6550,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6478,7 +6562,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6488,7 +6574,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6498,7 +6586,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6508,7 +6598,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6518,7 +6610,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6528,7 +6622,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6538,7 +6634,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -6548,7 +6646,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -6558,7 +6658,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -6568,7 +6670,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
